--- a/SP_Sklad/TempLate/Debtors.xlsx
+++ b/SP_Sklad/TempLate/Debtors.xlsx
@@ -49,7 +49,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -57,21 +57,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="53"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -326,76 +311,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,7 +748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:H99"/>
+  <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -798,216 +769,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="e">
+      <c r="B3" s="14" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="e">
+      <c r="B7" s="10" t="e">
         <f>KAgent_N</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="29" t="e">
+      <c r="C7" s="23" t="e">
         <f>Kagent_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="16" t="e">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="11" t="e">
         <f>Kagent_SALDO</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="17" t="e">
+      <c r="H7" s="12" t="e">
         <f>G7*-1</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="11" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B11:F11"/>
+  <mergeCells count="6">
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:F6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/Debtors.xlsx
+++ b/SP_Sklad/TempLate/Debtors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -11,17 +11,17 @@
   </sheets>
   <definedNames>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
-    <definedName name="Kagent">Лист1!$A$7:$H$8</definedName>
+    <definedName name="Kagent">Лист1!$A$7:$I$8</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sum</t>
   </si>
@@ -40,16 +40,19 @@
   <si>
     <t>Сума боргу</t>
   </si>
+  <si>
+    <t>Група</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -145,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -307,11 +310,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -342,6 +358,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -369,14 +400,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +560,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -570,7 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -746,107 +769,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:9" ht="27" customHeight="1">
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="9" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="e">
+    <row r="3" spans="2:9" ht="11.25" customHeight="1">
+      <c r="B3" s="19" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+    <row r="4" spans="2:9" ht="7.5" customHeight="1"/>
+    <row r="5" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="12.75" customHeight="1">
       <c r="B7" s="10" t="e">
         <f>KAgent_N</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="23" t="e">
+      <c r="C7" s="15" t="e">
         <f>Kagent_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="11" t="e">
         <f>Kagent_SALDO</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="12" t="e">
+      <c r="H7" s="14" t="e">
+        <f>Kagent_GroupName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="12" t="e">
         <f>G7*-1</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="12.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>2</v>
@@ -855,17 +890,19 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="7" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:F6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
